--- a/biology/Zoologie/Fecenia_cylindrata/Fecenia_cylindrata.xlsx
+++ b/biology/Zoologie/Fecenia_cylindrata/Fecenia_cylindrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fecenia cylindrata est une espèce d'araignées aranéomorphes de la famille des Psechridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fecenia cylindrata est une espèce d'araignées aranéomorphes de la famille des Psechridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, en Thaïlande, au Laos et à Hainan en Chine[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, en Thaïlande, au Laos et à Hainan en Chine,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace des mâles mesurent de 3,6 à 4,4 mm de long sur de 2,2 à 2,8 mm de large, l'abdomen de 4,8 à 6,5 mm de long sur de 1,9 à 2,5 mm de large. La carapace des femelles mesurent de 3,7 à 7,2 mm de long sur de 2,2 à 4,2 mm de large, l'abdomen de 7,3 à 13,0 mm de long sur de 3,5 à 6,0 mm de large[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace des mâles mesurent de 3,6 à 4,4 mm de long sur de 2,2 à 2,8 mm de large, l'abdomen de 4,8 à 6,5 mm de long sur de 1,9 à 2,5 mm de large. La carapace des femelles mesurent de 3,7 à 7,2 mm de long sur de 2,2 à 4,2 mm de large, l'abdomen de 7,3 à 13,0 mm de long sur de 3,5 à 6,0 mm de large.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thorell, 1895 : Descriptive catalogue of the spiders of Burma. London, p. 1-406 (texte intégral).</t>
         </is>
